--- a/src/main/resources/static-data/configs.xlsx
+++ b/src/main/resources/static-data/configs.xlsx
@@ -16,37 +16,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>track 100 ip route 217.168.38.254 255.255.255.255 reachability
- ip vrf VPN-INT2
- delay up 20
-ip subnet-zero
-no ip source-route
-ip routing
-ip domain-lookup source-interface Loopback1
-ip domain-name cablecom.net
-ip host tftp 62.2.21.8
-ip name-server 62.2.22.61
-ip name-server 62.2.22.62
+    <t>track 100 ip route 217.168.38.254 255.255.255.255 reachability_x000D_
+ ip vrf VPN-INT2_x000D_
+ delay up 20_x000D_
+ip subnet-zero_x000D_
+no ip source-route_x000D_
+ip routing_x000D_
+ip domain-lookup source-interface Loopback1_x000D_
+ip domain-name cablecom.net_x000D_
+ip host tftp 62.2.21.8_x000D_
+ip name-server 62.2.22.61_x000D_
+ip name-server 62.2.22.62_x000D_
 ip name-server 62.2.32.5</t>
   </si>
   <si>
-    <t>interface GigabitEthernet0
- no ip address
- shutdown
- negotiation auto
-interface GigabitEthernet0/1
- description jrq:21244; MLE VPN; ...: 100000kbps; ...; 2012-08-15; ...
- port-type nni
- no switchport
- ip address 192.168.200.4 255.255.255.0
-interface GigabitEthernet0/2
- description VPN-INT1; 10000kbps; ...; 2012-08-15; ...
- port-type nni
- no switchport
- ip vrf forwarding VPN-INT1
+    <t>interface GigabitEthernet0_x000D_
+ no ip address_x000D_
+ shutdown_x000D_
+ negotiation auto_x000D_
+interface GigabitEthernet0/1_x000D_
+ description jrq:21244; MLE VPN; ...: 100000kbps; ...; 2012-08-15; ..._x000D_
+ port-type nni_x000D_
+ no switchport_x000D_
+ ip address 192.168.200.4 255.255.255.0_x000D_
+interface GigabitEthernet0/2_x000D_
+ description VPN-INT1; 10000kbps; ...; 2012-08-15; ..._x000D_
+ port-type nni_x000D_
+ no switchport_x000D_
+ ip vrf forwarding VPN-INT1_x000D_
  ip address 46.140.131.41 255.255.255.252</t>
+  </si>
+  <si>
+    <t>interface Vlan1168_x000D_
+ description mlrZUC002 gi3/19.1168; VPN-INT1; 10000kbps; ...; 2012-08-15; ..._x000D_
+ ip vrf forwarding VPN-INT1_x000D_
+ ip address 213.193.70.170 255.255.255.252_x000D_
+interface Vlan1169_x000D_
+ description mlrZUC002 gi3/19.1168; VPN-INT2; 100000kbps; ...; 2012-08-15; ..._x000D_
+ ip vrf forwarding VPN-INT2_x000D_
+ ip address 213.193.70.174 255.255.255.252_x000D_
+interface Vlan1175_x000D_
+ description mlrZUC002 gi3/19.1175; jrq:21244; MLE VPN; ...; 100000kbps; ...; 2012-08-15; abullet_x000D_
+ bandwidth 106000_x000D_
+ ip address 10.194.42.238 255.255.255.252</t>
+  </si>
+  <si>
+    <t>address-family ipv4_x000D_
+  neighbor 10.194.42.237 activate_x000D_
+  neighbor 10.194.42.237 default-originate_x000D_
+  no auto-summary_x000D_
+  no synchronization_x000D_
+  network 10.194.42.236 mask 255.255.255.252_x000D_
+  network 10.230.20.24 mask 255.255.255.255_x000D_
+  network 192.168.200.0_x000D_
+ exit-address-family_x000D_
+ address-family ipv4 vrf VPN-INT2_x000D_
+  neighbor 213.193.70.173 remote-as 8404_x000D_
+  neighbor 213.193.70.173 password 7 ..._x000D_
+  neighbor 213.193.70.173 timers 5 15_x000D_
+  neighbor 213.193.70.173 activate_x000D_
+  neighbor 213.193.70.173 route-map VPN-INT2-MAIN-LINK-IN in_x000D_
+  neighbor 213.193.70.173 route-map VPN-INT2-MAIN-LINK-OUT out_x000D_
+  no synchronization_x000D_
+  network 46.140.128.32 mask 255.255.255.224_x000D_
+  network 213.193.70.172 mask 255.255.255.252_x000D_
+ exit-address-family_x000D_
+ address-family ipv4 vrf VPN-INT1_x000D_
+  neighbor 213.193.70.169 remote-as 8404_x000D_
+  neighbor 213.193.70.169 password 7 ..._x000D_
+  neighbor 213.193.70.169 timers 5 15_x000D_
+  neighbor 213.193.70.169 activate_x000D_
+  no synchronization_x000D_
+  network 46.140.131.40 mask 255.255.255.252_x000D_
+  network 213.193.70.168 mask 255.255.255.252</t>
+  </si>
+  <si>
+    <t>access-list 60 remark *** Block-Access-All default SNMP RO string ***_x000D_
+access-list 60 deny   any_x000D_
+access-list 61 remark *** Permitted SMC/NMC Hosts for SNMP RO access ***_x000D_
+access-list 61 permit 217.168.32.0 0.0.0.255_x000D_
+access-list 61 permit 217.168.33.0 0.0.0.255_x000D_
+access-list 61 permit 62.2.19.0 0.0.0.255_x000D_
+access-list 61 permit 62.2.20.0 0.0.3.255_x000D_
+access-list 62 remark 'Customer SNMP Hosts'_x000D_
+access-list 62 deny   any_x000D_
+access-list 63 remark *** Permitted SMC/NMC Hosts for SNMP RW access ***_x000D_
+access-list 63 permit 217.168.33.20_x000D_
+access-list 63 permit 217.168.32.20_x000D_
+access-list 63 permit 217.168.33.30_x000D_
+access-list 63 permit 217.168.33.10_x000D_
+access-list 63 permit 217.168.32.10_x000D_
+access-list 88 remark 'telnet'_x000D_
+access-list 88 permit 46.140.128.35_x000D_
+access-list 88 permit 62.2.19.0 0.0.0.255_x000D_
+access-list 88 permit 62.2.20.0 0.0.3.255_x000D_
+access-list 88 permit 217.168.32.0 0.0.0.255_x000D_
+access-list 88 permit 217.168.33.0 0.0.0.255_x000D_
+access-list 88 permit 10.194.42.236 0.0.0.3_x000D_
+access-list 88 deny   any_x000D_
+access-list 95 remark 'ntp'_x000D_
+access-list 95 permit 62.2.22.62_x000D_
+access-list 95 permit 62.2.22.61_x000D_
+access-list 95 deny   any</t>
   </si>
 </sst>
 </file>
@@ -83,13 +156,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,31 +466,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="154.7109375" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="180">
-      <c r="A1" s="2">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="225">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="180">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.5">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="405">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static-data/configs.xlsx
+++ b/src/main/resources/static-data/configs.xlsx
@@ -49,48 +49,14 @@
  ip address 46.140.131.41 255.255.255.252</t>
   </si>
   <si>
-    <t>interface Vlan1168_x000D_
- description mlrZUC002 gi3/19.1168; VPN-INT1; 10000kbps; ...; 2012-08-15; ..._x000D_
- ip vrf forwarding VPN-INT1_x000D_
- ip address 213.193.70.170 255.255.255.252_x000D_
-interface Vlan1169_x000D_
- description mlrZUC002 gi3/19.1168; VPN-INT2; 100000kbps; ...; 2012-08-15; ..._x000D_
- ip vrf forwarding VPN-INT2_x000D_
- ip address 213.193.70.174 255.255.255.252_x000D_
-interface Vlan1175_x000D_
- description mlrZUC002 gi3/19.1175; jrq:21244; MLE VPN; ...; 100000kbps; ...; 2012-08-15; abullet_x000D_
- bandwidth 106000_x000D_
- ip address 10.194.42.238 255.255.255.252</t>
-  </si>
-  <si>
-    <t>address-family ipv4_x000D_
-  neighbor 10.194.42.237 activate_x000D_
-  neighbor 10.194.42.237 default-originate_x000D_
-  no auto-summary_x000D_
-  no synchronization_x000D_
-  network 10.194.42.236 mask 255.255.255.252_x000D_
-  network 10.230.20.24 mask 255.255.255.255_x000D_
-  network 192.168.200.0_x000D_
- exit-address-family_x000D_
- address-family ipv4 vrf VPN-INT2_x000D_
-  neighbor 213.193.70.173 remote-as 8404_x000D_
-  neighbor 213.193.70.173 password 7 ..._x000D_
-  neighbor 213.193.70.173 timers 5 15_x000D_
-  neighbor 213.193.70.173 activate_x000D_
-  neighbor 213.193.70.173 route-map VPN-INT2-MAIN-LINK-IN in_x000D_
-  neighbor 213.193.70.173 route-map VPN-INT2-MAIN-LINK-OUT out_x000D_
-  no synchronization_x000D_
-  network 46.140.128.32 mask 255.255.255.224_x000D_
-  network 213.193.70.172 mask 255.255.255.252_x000D_
- exit-address-family_x000D_
- address-family ipv4 vrf VPN-INT1_x000D_
-  neighbor 213.193.70.169 remote-as 8404_x000D_
-  neighbor 213.193.70.169 password 7 ..._x000D_
-  neighbor 213.193.70.169 timers 5 15_x000D_
-  neighbor 213.193.70.169 activate_x000D_
-  no synchronization_x000D_
-  network 46.140.131.40 mask 255.255.255.252_x000D_
-  network 213.193.70.168 mask 255.255.255.252</t>
+    <t>interface Vlan1168
+ description mlrZUC002 gi3/19.1168; VPN-INT1; 10000kbps; ...; 2012-08-15; ...
+ ip vrf forwarding VPN-INT1
+ ip address 213.193.70.170 255.255.255.252
+interface Vlan1169
+ description mlrZUC002 gi3/19.1168; VPN-INT2; 100000kbps; ...; 2012-08-15; ...
+ ip vrf forwarding VPN-INT2
+ ip address 213.193.70.174 255.255.255.252</t>
   </si>
   <si>
     <t>access-list 60 remark *** Block-Access-All default SNMP RO string ***_x000D_
@@ -107,19 +73,19 @@
 access-list 63 permit 217.168.32.20_x000D_
 access-list 63 permit 217.168.33.30_x000D_
 access-list 63 permit 217.168.33.10_x000D_
-access-list 63 permit 217.168.32.10_x000D_
-access-list 88 remark 'telnet'_x000D_
-access-list 88 permit 46.140.128.35_x000D_
-access-list 88 permit 62.2.19.0 0.0.0.255_x000D_
-access-list 88 permit 62.2.20.0 0.0.3.255_x000D_
-access-list 88 permit 217.168.32.0 0.0.0.255_x000D_
-access-list 88 permit 217.168.33.0 0.0.0.255_x000D_
-access-list 88 permit 10.194.42.236 0.0.0.3_x000D_
-access-list 88 deny   any_x000D_
-access-list 95 remark 'ntp'_x000D_
-access-list 95 permit 62.2.22.62_x000D_
-access-list 95 permit 62.2.22.61_x000D_
-access-list 95 deny   any</t>
+access-list 63 permit 217.168.32.10_x000D_</t>
+  </si>
+  <si>
+    <t>address-family ipv4_x000D_
+  neighbor 10.194.42.237 activate_x000D_
+  neighbor 10.194.42.237 default-originate_x000D_
+  no auto-summary_x000D_
+  no synchronization_x000D_
+  network 10.194.42.236 mask 255.255.255.252_x000D_
+  network 10.230.20.24 mask 255.255.255.255_x000D_
+  network 192.168.200.0_x000D_
+ exit-address-family_x000D_
+ address-family ipv4 vrf VPN-INT2_x000D_</t>
   </si>
 </sst>
 </file>
@@ -469,7 +435,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="180">
+    <row r="3" spans="1:2" ht="120">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -501,20 +467,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5">
+    <row r="4" spans="1:2" ht="150">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="405">
+    <row r="5" spans="1:2" ht="225">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static-data/configs.xlsx
+++ b/src/main/resources/static-data/configs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>track 100 ip route 217.168.38.254 255.255.255.255 reachability_x000D_
  ip vrf VPN-INT2_x000D_
@@ -87,12 +87,18 @@
  exit-address-family_x000D_
  address-family ipv4 vrf VPN-INT2_x000D_</t>
   </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,7 +141,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +194,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -222,6 +228,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -256,9 +263,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,55 +439,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="180">
-      <c r="A1" s="3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="225">
-      <c r="A2" s="3">
+    <row r="3" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="120">
-      <c r="A3" s="1">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="150">
-      <c r="A4" s="1">
+    <row r="5" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="225">
-      <c r="A5" s="1">
+    <row r="6" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -489,24 +505,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
